--- a/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat hang.xlsx
+++ b/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat hang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\End_Of_Year\aspnet-core\src\Nguyen_Tan_Phat_Project.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BBE404-7AE1-4403-A684-06FC7E0B9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA2173-E631-417C-8448-294238397AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17745" yWindow="2775" windowWidth="17475" windowHeight="12150" xr2:uid="{2CE4D9F8-7B82-4A89-8224-7D8C29730915}"/>
+    <workbookView xWindow="-20085" yWindow="3825" windowWidth="16050" windowHeight="11010" xr2:uid="{2CE4D9F8-7B82-4A89-8224-7D8C29730915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,41 +182,41 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,179 +601,179 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D11" sqref="D11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat hang.xlsx
+++ b/aspnet-core/src/Nguyen_Tan_Phat_Project.Web.Host/wwwroot/ExcelTemplate/phieu xuat hang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\End_Of_Year\aspnet-core\src\Nguyen_Tan_Phat_Project.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA2173-E631-417C-8448-294238397AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FCB3C-5B40-4E7F-854A-1BCF82BF20B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20085" yWindow="3825" windowWidth="16050" windowHeight="11010" xr2:uid="{2CE4D9F8-7B82-4A89-8224-7D8C29730915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2CE4D9F8-7B82-4A89-8224-7D8C29730915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,31 +191,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,58 +601,62 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:L11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E7" s="4"/>
@@ -662,88 +666,88 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,11 +763,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:L10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="B13:D13"/>
@@ -771,9 +770,14 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D6:I6"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
